--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825976.5378183823</v>
+        <v>814931.4000818003</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120517.3480756697</v>
+        <v>118698.4955740321</v>
       </c>
       <c r="C6" t="n">
-        <v>120517.3480756696</v>
+        <v>118698.495574032</v>
       </c>
       <c r="D6" t="n">
-        <v>120517.3480756697</v>
+        <v>118698.4955740321</v>
       </c>
       <c r="E6" t="n">
-        <v>-27207.45196822457</v>
+        <v>-28285.31329094599</v>
       </c>
       <c r="F6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="G6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="H6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="I6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="J6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="K6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="L6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="M6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="N6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="O6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
       <c r="P6" t="n">
-        <v>105892.5480317755</v>
+        <v>104814.686709054</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814931.4000818003</v>
+        <v>828657.7582192187</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26316,7 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698526</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>118698.4955740322</v>
+      </c>
+      <c r="C6" t="n">
         <v>118698.4955740321</v>
       </c>
-      <c r="C6" t="n">
-        <v>118698.495574032</v>
-      </c>
       <c r="D6" t="n">
-        <v>118698.4955740321</v>
+        <v>118698.4955740322</v>
       </c>
       <c r="E6" t="n">
-        <v>-28285.31329094599</v>
+        <v>-28285.31329094603</v>
       </c>
       <c r="F6" t="n">
         <v>104814.686709054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>828657.7582192187</v>
+        <v>744872.3564575939</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
         <v>165764.7948173021</v>
@@ -26429,37 +26429,37 @@
         <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
+        <v>57338.49600323976</v>
+      </c>
+      <c r="G4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>57338.49600323976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118698.4955740322</v>
+        <v>118654.3597953511</v>
       </c>
       <c r="C6" t="n">
-        <v>118698.4955740321</v>
+        <v>118654.359795351</v>
       </c>
       <c r="D6" t="n">
-        <v>118698.4955740322</v>
+        <v>118654.3597953509</v>
       </c>
       <c r="E6" t="n">
-        <v>-28285.31329094603</v>
+        <v>-43095.33013005994</v>
       </c>
       <c r="F6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="G6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="H6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="I6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="J6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="K6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="L6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="M6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="N6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="O6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
       <c r="P6" t="n">
-        <v>104814.686709054</v>
+        <v>90004.66986994013</v>
       </c>
     </row>
   </sheetData>
